--- a/Reporte_Persona_Natutal_Todos.xlsx
+++ b/Reporte_Persona_Natutal_Todos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>PERSONA NATURAL</t>
   </si>
@@ -128,82 +128,145 @@
     <t>COMENTARIOS</t>
   </si>
   <si>
-    <t>2022-10-16 19:34:02</t>
-  </si>
-  <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Perez</t>
+    <t>2022-10-03 12:27:19</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>PASAPORTE</t>
+  </si>
+  <si>
+    <t>HOMBRE</t>
+  </si>
+  <si>
+    <t>2000/01/01</t>
+  </si>
+  <si>
+    <t>Ecua</t>
+  </si>
+  <si>
+    <t>l.rick@mysticgardens.biz</t>
+  </si>
+  <si>
+    <t>Azuay</t>
+  </si>
+  <si>
+    <t>Camas</t>
+  </si>
+  <si>
+    <t>1924 NE 3rd Ave.</t>
+  </si>
+  <si>
+    <t>4 años</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>Virginia Rosario</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2022-10-03 12:42:00</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
   </si>
   <si>
     <t>CEDULA</t>
   </si>
   <si>
-    <t>HOMBRE</t>
-  </si>
-  <si>
-    <t>1999/01/01</t>
-  </si>
-  <si>
-    <t>Ecuatoriana</t>
-  </si>
-  <si>
-    <t>0963219072</t>
-  </si>
-  <si>
-    <t>joserph.a@gmail.com</t>
-  </si>
-  <si>
-    <t>Los Ríos</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>Carapungo, Jaime roldos y rio cayambe</t>
-  </si>
-  <si>
-    <t>2 años</t>
-  </si>
-  <si>
-    <t>Produbanco</t>
-  </si>
-  <si>
-    <t>Jose Perez</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Flor</t>
-  </si>
-  <si>
-    <t>2022-10-16 21:08:14</t>
-  </si>
-  <si>
-    <t>Escobar</t>
-  </si>
-  <si>
-    <t>1999/02/01</t>
-  </si>
-  <si>
-    <t>Guayas</t>
-  </si>
-  <si>
-    <t>4 años</t>
-  </si>
-  <si>
-    <t>Jose Perez g</t>
-  </si>
-  <si>
-    <t>Flor2</t>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>3 años</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>sadfsdf</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>2022-10-06 11:13:00</t>
+  </si>
+  <si>
+    <t>dssdfsd</t>
+  </si>
+  <si>
+    <t>MUJER</t>
+  </si>
+  <si>
+    <t>dfsdfsd</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>2022-10-06 11:20:12</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>dfsdfsdfsd</t>
+  </si>
+  <si>
+    <t>0982581478</t>
+  </si>
+  <si>
+    <t>Esmeraldas</t>
+  </si>
+  <si>
+    <t>MANTECA</t>
+  </si>
+  <si>
+    <t>917 ALPINE AVE</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>2022-10-10 09:50:34</t>
+  </si>
+  <si>
+    <t>2022-10-06</t>
+  </si>
+  <si>
+    <t>Pagado</t>
   </si>
 </sst>
 </file>
@@ -589,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:AJ2"/>
@@ -763,22 +826,22 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -787,10 +850,10 @@
         <v>41</v>
       </c>
       <c r="I3">
-        <v>1706673967</v>
+        <v>1716261407</v>
       </c>
       <c r="J3">
-        <v>170204</v>
+        <v>98607</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
@@ -802,35 +865,35 @@
       <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>3602104694</v>
+      </c>
+      <c r="P3">
+        <v>3602104694</v>
+      </c>
+      <c r="Q3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
       <c r="X3">
-        <v>12345667</v>
+        <v>123456789</v>
       </c>
       <c r="Y3" t="s">
         <v>51</v>
@@ -859,19 +922,19 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -880,66 +943,68 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I4">
-        <v>1706673967</v>
+        <v>118395988</v>
       </c>
       <c r="J4">
-        <v>170204</v>
+        <v>98607</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4">
+        <v>3602104694</v>
+      </c>
+      <c r="P4">
+        <v>6656565</v>
+      </c>
+      <c r="Q4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" t="s">
-        <v>59</v>
-      </c>
       <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
         <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
       </c>
       <c r="V4" t="s">
         <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="X4">
-        <v>123456674</v>
+        <v>656566565</v>
       </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4"/>
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>53</v>
+      </c>
       <c r="AB4" t="s">
         <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -950,6 +1015,270 @@
       <c r="AH4"/>
       <c r="AI4"/>
       <c r="AJ4"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5">
+        <v>118659587</v>
+      </c>
+      <c r="J5">
+        <v>98607</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5">
+        <v>3602104694</v>
+      </c>
+      <c r="P5">
+        <v>3602104694</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>115869844</v>
+      </c>
+      <c r="J6">
+        <v>95336</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>115869844</v>
+      </c>
+      <c r="J7">
+        <v>95336</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
